--- a/data/extracted/Congressional Election Results by State (2008 - 111th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2008 - 111th).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CD5F54-2444-7442-B3AB-C639626AF9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E46F9B-5222-DA4D-8021-638BF701D3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="22400" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -570,7 +570,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -764,6 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2021,7 +2028,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2736,10 +2743,10 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:I52"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3007,7 +3014,7 @@
       <c r="I6" s="82">
         <v>1</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4942,7 +4949,7 @@
       <c r="I47" s="82">
         <v>0</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="83">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>

--- a/data/extracted/Congressional Election Results by State (2008 - 111th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2008 - 111th).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823D8A7-37C6-9E45-B2D0-E5C4C28FC039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0234849-5EE4-D642-9483-5D1939392407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="22400" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2016,7 +2016,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2731,10 +2731,10 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5313,10 +5313,10 @@
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9120,7 +9120,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9165,10 +9165,10 @@
         <v>22</v>
       </c>
       <c r="C2">
+        <v>1120903</v>
+      </c>
+      <c r="D2">
         <v>718367</v>
-      </c>
-      <c r="D2">
-        <v>1120903</v>
       </c>
       <c r="E2">
         <v>15998</v>
@@ -9177,10 +9177,10 @@
         <v>1855268</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>2</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -9197,10 +9197,10 @@
         <v>24</v>
       </c>
       <c r="C3">
+        <v>158939</v>
+      </c>
+      <c r="D3">
         <v>142560</v>
-      </c>
-      <c r="D3">
-        <v>158939</v>
       </c>
       <c r="E3">
         <v>15479</v>
@@ -9209,10 +9209,10 @@
         <v>316978</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -9229,10 +9229,10 @@
         <v>26</v>
       </c>
       <c r="C4">
+        <v>1021798</v>
+      </c>
+      <c r="D4">
         <v>1055305</v>
-      </c>
-      <c r="D4">
-        <v>1021798</v>
       </c>
       <c r="E4">
         <v>78591</v>
@@ -9241,10 +9241,10 @@
         <v>2155694</v>
       </c>
       <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>5</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>28</v>
       </c>
       <c r="C5">
+        <v>215196</v>
+      </c>
+      <c r="D5">
         <v>415481</v>
-      </c>
-      <c r="D5">
-        <v>215196</v>
       </c>
       <c r="E5">
         <v>156516</v>
@@ -9273,10 +9273,10 @@
         <v>787193</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -9293,10 +9293,10 @@
         <v>30</v>
       </c>
       <c r="C6">
+        <v>4515925</v>
+      </c>
+      <c r="D6">
         <v>7380825</v>
-      </c>
-      <c r="D6">
-        <v>4515925</v>
       </c>
       <c r="E6">
         <v>425329</v>
@@ -9305,10 +9305,10 @@
         <v>12322079</v>
       </c>
       <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
         <v>34</v>
-      </c>
-      <c r="H6">
-        <v>19</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -9325,10 +9325,10 @@
         <v>32</v>
       </c>
       <c r="C7">
+        <v>990836</v>
+      </c>
+      <c r="D7">
         <v>1259723</v>
-      </c>
-      <c r="D7">
-        <v>990836</v>
       </c>
       <c r="E7">
         <v>33287</v>
@@ -9337,10 +9337,10 @@
         <v>2283846</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>5</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -9357,10 +9357,10 @@
         <v>34</v>
       </c>
       <c r="C8">
+        <v>504785</v>
+      </c>
+      <c r="D8">
         <v>908761</v>
-      </c>
-      <c r="D8">
-        <v>504785</v>
       </c>
       <c r="E8">
         <v>113853</v>
@@ -9369,10 +9369,10 @@
         <v>1527399</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>5</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -9389,10 +9389,10 @@
         <v>36</v>
       </c>
       <c r="C9">
+        <v>235437</v>
+      </c>
+      <c r="D9">
         <v>146434</v>
-      </c>
-      <c r="D9">
-        <v>235437</v>
       </c>
       <c r="E9">
         <v>3586</v>
@@ -9401,10 +9401,10 @@
         <v>385457</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>38</v>
       </c>
       <c r="C10">
+        <v>3792167</v>
+      </c>
+      <c r="D10">
         <v>3434831</v>
-      </c>
-      <c r="D10">
-        <v>3792167</v>
       </c>
       <c r="E10">
         <v>194174</v>
@@ -9433,10 +9433,10 @@
         <v>7421172</v>
       </c>
       <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
         <v>10</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -9453,10 +9453,10 @@
         <v>40</v>
       </c>
       <c r="C11">
+        <v>1796549</v>
+      </c>
+      <c r="D11">
         <v>1858090</v>
-      </c>
-      <c r="D11">
-        <v>1796549</v>
       </c>
       <c r="E11">
         <v>309</v>
@@ -9465,10 +9465,10 @@
         <v>3654948</v>
       </c>
       <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
         <v>6</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>42</v>
       </c>
       <c r="C12">
+        <v>82540</v>
+      </c>
+      <c r="D12">
         <v>319956</v>
-      </c>
-      <c r="D12">
-        <v>82540</v>
       </c>
       <c r="E12">
         <v>53568</v>
@@ -9497,10 +9497,10 @@
         <v>456064</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>2</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -9517,10 +9517,10 @@
         <v>44</v>
       </c>
       <c r="C13">
+        <v>377464</v>
+      </c>
+      <c r="D13">
         <v>259776</v>
-      </c>
-      <c r="D13">
-        <v>377464</v>
       </c>
       <c r="E13">
         <v>612</v>
@@ -9549,10 +9549,10 @@
         <v>46</v>
       </c>
       <c r="C14">
+        <v>1961173</v>
+      </c>
+      <c r="D14">
         <v>3176203</v>
-      </c>
-      <c r="D14">
-        <v>1961173</v>
       </c>
       <c r="E14">
         <v>110819</v>
@@ -9561,10 +9561,10 @@
         <v>5248195</v>
       </c>
       <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
         <v>12</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -9581,10 +9581,10 @@
         <v>48</v>
       </c>
       <c r="C15">
+        <v>1240581</v>
+      </c>
+      <c r="D15">
         <v>1388963</v>
-      </c>
-      <c r="D15">
-        <v>1240581</v>
       </c>
       <c r="E15">
         <v>47306</v>
@@ -9593,10 +9593,10 @@
         <v>2676850</v>
       </c>
       <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
         <v>5</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -9613,10 +9613,10 @@
         <v>50</v>
       </c>
       <c r="C16">
+        <v>698241</v>
+      </c>
+      <c r="D16">
         <v>759460</v>
-      </c>
-      <c r="D16">
-        <v>698241</v>
       </c>
       <c r="E16">
         <v>24106</v>
@@ -9625,10 +9625,10 @@
         <v>1481807</v>
       </c>
       <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -9645,10 +9645,10 @@
         <v>52</v>
       </c>
       <c r="C17">
+        <v>690005</v>
+      </c>
+      <c r="D17">
         <v>470031</v>
-      </c>
-      <c r="D17">
-        <v>690005</v>
       </c>
       <c r="E17">
         <v>48266</v>
@@ -9657,10 +9657,10 @@
         <v>1208302</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -9677,10 +9677,10 @@
         <v>54</v>
       </c>
       <c r="C18">
+        <v>955182</v>
+      </c>
+      <c r="D18">
         <v>761209</v>
-      </c>
-      <c r="D18">
-        <v>955182</v>
       </c>
       <c r="E18">
         <v>33449</v>
@@ -9689,10 +9689,10 @@
         <v>1749840</v>
       </c>
       <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
         <v>2</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -9709,10 +9709,10 @@
         <v>56</v>
       </c>
       <c r="C19">
+        <v>594306</v>
+      </c>
+      <c r="D19">
         <v>398474</v>
-      </c>
-      <c r="D19">
-        <v>594306</v>
       </c>
       <c r="E19">
         <v>53396</v>
@@ -9721,10 +9721,10 @@
         <v>1046176</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -9741,10 +9741,10 @@
         <v>58</v>
       </c>
       <c r="C20">
+        <v>278198</v>
+      </c>
+      <c r="D20">
         <v>431903</v>
-      </c>
-      <c r="D20">
-        <v>278198</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -9753,10 +9753,10 @@
         <v>710101</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -9773,10 +9773,10 @@
         <v>60</v>
       </c>
       <c r="C21">
+        <v>762587</v>
+      </c>
+      <c r="D21">
         <v>1677490</v>
-      </c>
-      <c r="D21">
-        <v>762587</v>
       </c>
       <c r="E21">
         <v>57875</v>
@@ -9785,10 +9785,10 @@
         <v>2497952</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>7</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -9805,10 +9805,10 @@
         <v>62</v>
       </c>
       <c r="C22">
+        <v>318461</v>
+      </c>
+      <c r="D22">
         <v>2245778</v>
-      </c>
-      <c r="D22">
-        <v>318461</v>
       </c>
       <c r="E22">
         <v>538756</v>
@@ -9817,10 +9817,10 @@
         <v>3102995</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -9837,10 +9837,10 @@
         <v>64</v>
       </c>
       <c r="C23">
+        <v>2114293</v>
+      </c>
+      <c r="D23">
         <v>2516640</v>
-      </c>
-      <c r="D23">
-        <v>2114293</v>
       </c>
       <c r="E23">
         <v>179757</v>
@@ -9849,10 +9849,10 @@
         <v>4810690</v>
       </c>
       <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
         <v>8</v>
-      </c>
-      <c r="H23">
-        <v>7</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -9869,10 +9869,10 @@
         <v>66</v>
       </c>
       <c r="C24">
+        <v>1069015</v>
+      </c>
+      <c r="D24">
         <v>1612480</v>
-      </c>
-      <c r="D24">
-        <v>1069015</v>
       </c>
       <c r="E24">
         <v>121119</v>
@@ -9881,10 +9881,10 @@
         <v>2802614</v>
       </c>
       <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
         <v>5</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -9901,10 +9901,10 @@
         <v>68</v>
       </c>
       <c r="C25">
+        <v>527330</v>
+      </c>
+      <c r="D25">
         <v>731805</v>
-      </c>
-      <c r="D25">
-        <v>527330</v>
       </c>
       <c r="E25">
         <v>5612</v>
@@ -9913,10 +9913,10 @@
         <v>1264747</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>3</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -9933,10 +9933,10 @@
         <v>70</v>
       </c>
       <c r="C26">
+        <v>1313018</v>
+      </c>
+      <c r="D26">
         <v>1413016</v>
-      </c>
-      <c r="D26">
-        <v>1313018</v>
       </c>
       <c r="E26">
         <v>95450</v>
@@ -9945,10 +9945,10 @@
         <v>2821484</v>
       </c>
       <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
         <v>4</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>72</v>
       </c>
       <c r="C27">
+        <v>308470</v>
+      </c>
+      <c r="D27">
         <v>155930</v>
-      </c>
-      <c r="D27">
-        <v>308470</v>
       </c>
       <c r="E27">
         <v>16500</v>
@@ -9977,10 +9977,10 @@
         <v>480900</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -9997,10 +9997,10 @@
         <v>74</v>
       </c>
       <c r="C28">
+        <v>510513</v>
+      </c>
+      <c r="D28">
         <v>264885</v>
-      </c>
-      <c r="D28">
-        <v>510513</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -10009,10 +10009,10 @@
         <v>775398</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -10029,10 +10029,10 @@
         <v>76</v>
       </c>
       <c r="C29">
+        <v>383548</v>
+      </c>
+      <c r="D29">
         <v>457320</v>
-      </c>
-      <c r="D29">
-        <v>383548</v>
       </c>
       <c r="E29">
         <v>67386</v>
@@ -10041,10 +10041,10 @@
         <v>908254</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>2</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -10061,10 +10061,10 @@
         <v>78</v>
       </c>
       <c r="C30">
+        <v>294560</v>
+      </c>
+      <c r="D30">
         <v>364767</v>
-      </c>
-      <c r="D30">
-        <v>294560</v>
       </c>
       <c r="E30">
         <v>15221</v>
@@ -10073,10 +10073,10 @@
         <v>674548</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>2</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -10093,10 +10093,10 @@
         <v>80</v>
       </c>
       <c r="C31">
+        <v>1461820</v>
+      </c>
+      <c r="D31">
         <v>1911827</v>
-      </c>
-      <c r="D31">
-        <v>1461820</v>
       </c>
       <c r="E31">
         <v>64333</v>
@@ -10105,10 +10105,10 @@
         <v>3437980</v>
       </c>
       <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
         <v>8</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -10125,10 +10125,10 @@
         <v>82</v>
       </c>
       <c r="C32">
+        <v>321083</v>
+      </c>
+      <c r="D32">
         <v>457135</v>
-      </c>
-      <c r="D32">
-        <v>321083</v>
       </c>
       <c r="E32">
         <v>36348</v>
@@ -10137,10 +10137,10 @@
         <v>814566</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>3</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -10157,10 +10157,10 @@
         <v>84</v>
       </c>
       <c r="C33">
+        <v>1800093</v>
+      </c>
+      <c r="D33">
         <v>4006436</v>
-      </c>
-      <c r="D33">
-        <v>1800093</v>
       </c>
       <c r="E33">
         <v>1914974</v>
@@ -10169,10 +10169,10 @@
         <v>7721503</v>
       </c>
       <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
         <v>26</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -10189,10 +10189,10 @@
         <v>86</v>
       </c>
       <c r="C34">
+        <v>1901517</v>
+      </c>
+      <c r="D34">
         <v>2293971</v>
-      </c>
-      <c r="D34">
-        <v>1901517</v>
       </c>
       <c r="E34">
         <v>19605</v>
@@ -10201,10 +10201,10 @@
         <v>4215093</v>
       </c>
       <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
         <v>8</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -10221,10 +10221,10 @@
         <v>88</v>
       </c>
       <c r="C35">
+        <v>119388</v>
+      </c>
+      <c r="D35">
         <v>194577</v>
-      </c>
-      <c r="D35">
-        <v>119388</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -10233,10 +10233,10 @@
         <v>313965</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -10253,10 +10253,10 @@
         <v>90</v>
       </c>
       <c r="C36">
+        <v>2491498</v>
+      </c>
+      <c r="D36">
         <v>2752111</v>
-      </c>
-      <c r="D36">
-        <v>2491498</v>
       </c>
       <c r="E36">
         <v>130731</v>
@@ -10265,10 +10265,10 @@
         <v>5374340</v>
       </c>
       <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
         <v>10</v>
-      </c>
-      <c r="H36">
-        <v>8</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -10285,10 +10285,10 @@
         <v>92</v>
       </c>
       <c r="C37">
+        <v>802530</v>
+      </c>
+      <c r="D37">
         <v>503614</v>
-      </c>
-      <c r="D37">
-        <v>802530</v>
       </c>
       <c r="E37">
         <v>30783</v>
@@ -10297,10 +10297,10 @@
         <v>1336927</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -10317,10 +10317,10 @@
         <v>94</v>
       </c>
       <c r="C38">
+        <v>435920</v>
+      </c>
+      <c r="D38">
         <v>1036171</v>
-      </c>
-      <c r="D38">
-        <v>435920</v>
       </c>
       <c r="E38">
         <v>210418</v>
@@ -10329,10 +10329,10 @@
         <v>1682509</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>4</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>96</v>
       </c>
       <c r="C39">
+        <v>2520755</v>
+      </c>
+      <c r="D39">
         <v>3209168</v>
-      </c>
-      <c r="D39">
-        <v>2520755</v>
       </c>
       <c r="E39">
         <v>57931</v>
@@ -10361,10 +10361,10 @@
         <v>5787854</v>
       </c>
       <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
         <v>12</v>
-      </c>
-      <c r="H39">
-        <v>7</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -10381,10 +10381,10 @@
         <v>98</v>
       </c>
       <c r="C40">
+        <v>118773</v>
+      </c>
+      <c r="D40">
         <v>303670</v>
-      </c>
-      <c r="D40">
-        <v>118773</v>
       </c>
       <c r="E40">
         <v>15789</v>
@@ -10393,10 +10393,10 @@
         <v>438232</v>
       </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -10413,10 +10413,10 @@
         <v>100</v>
       </c>
       <c r="C41">
+        <v>939703</v>
+      </c>
+      <c r="D41">
         <v>919529</v>
-      </c>
-      <c r="D41">
-        <v>939703</v>
       </c>
       <c r="E41">
         <v>14658</v>
@@ -10425,10 +10425,10 @@
         <v>1873890</v>
       </c>
       <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
         <v>2</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>102</v>
       </c>
       <c r="C42">
+        <v>122966</v>
+      </c>
+      <c r="D42">
         <v>256041</v>
-      </c>
-      <c r="D42">
-        <v>122966</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -10457,10 +10457,10 @@
         <v>379007</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -10477,10 +10477,10 @@
         <v>104</v>
       </c>
       <c r="C43">
+        <v>977677</v>
+      </c>
+      <c r="D43">
         <v>1195542</v>
-      </c>
-      <c r="D43">
-        <v>977677</v>
       </c>
       <c r="E43">
         <v>128666</v>
@@ -10489,10 +10489,10 @@
         <v>2301885</v>
       </c>
       <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
         <v>5</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>106</v>
       </c>
       <c r="C44">
+        <v>4203917</v>
+      </c>
+      <c r="D44">
         <v>2979398</v>
-      </c>
-      <c r="D44">
-        <v>4203917</v>
       </c>
       <c r="E44">
         <v>345307</v>
@@ -10521,10 +10521,10 @@
         <v>7528622</v>
       </c>
       <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
         <v>12</v>
-      </c>
-      <c r="H44">
-        <v>20</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -10541,10 +10541,10 @@
         <v>108</v>
       </c>
       <c r="C45">
+        <v>503917</v>
+      </c>
+      <c r="D45">
         <v>393761</v>
-      </c>
-      <c r="D45">
-        <v>503917</v>
       </c>
       <c r="E45">
         <v>39161</v>
@@ -10553,10 +10553,10 @@
         <v>936839</v>
       </c>
       <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
         <v>2</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -10573,10 +10573,10 @@
         <v>110</v>
       </c>
       <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>248203</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
       </c>
       <c r="E46">
         <v>49948</v>
@@ -10585,10 +10585,10 @@
         <v>298151</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -10605,10 +10605,10 @@
         <v>112</v>
       </c>
       <c r="C47">
+        <v>1590687</v>
+      </c>
+      <c r="D47">
         <v>1852788</v>
-      </c>
-      <c r="D47">
-        <v>1590687</v>
       </c>
       <c r="E47">
         <v>51880</v>
@@ -10617,10 +10617,10 @@
         <v>3495355</v>
       </c>
       <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
         <v>6</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -10637,10 +10637,10 @@
         <v>114</v>
       </c>
       <c r="C48">
+        <v>1189147</v>
+      </c>
+      <c r="D48">
         <v>1725316</v>
-      </c>
-      <c r="D48">
-        <v>1189147</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -10649,10 +10649,10 @@
         <v>2914463</v>
       </c>
       <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
         <v>6</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -10669,10 +10669,10 @@
         <v>116</v>
       </c>
       <c r="C49">
+        <v>213339</v>
+      </c>
+      <c r="D49">
         <v>432075</v>
-      </c>
-      <c r="D49">
-        <v>213339</v>
       </c>
       <c r="E49">
         <v>146</v>
@@ -10681,10 +10681,10 @@
         <v>645560</v>
       </c>
       <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>2</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -10701,10 +10701,10 @@
         <v>118</v>
       </c>
       <c r="C50">
+        <v>1274987</v>
+      </c>
+      <c r="D50">
         <v>1383536</v>
-      </c>
-      <c r="D50">
-        <v>1274987</v>
       </c>
       <c r="E50">
         <v>116651</v>
@@ -10713,10 +10713,10 @@
         <v>2775174</v>
       </c>
       <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
         <v>5</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -10733,10 +10733,10 @@
         <v>120</v>
       </c>
       <c r="C51">
+        <v>131244</v>
+      </c>
+      <c r="D51">
         <v>106758</v>
-      </c>
-      <c r="D51">
-        <v>131244</v>
       </c>
       <c r="E51">
         <v>11573</v>
@@ -10745,10 +10745,10 @@
         <v>249575</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -10767,10 +10767,10 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10818,10 +10818,10 @@
         <v>127</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>210660</v>
       </c>
       <c r="E2">
-        <v>210660</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>3707</v>
@@ -10830,10 +10830,10 @@
         <v>214367</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -10850,10 +10850,10 @@
         <v>128</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>280902</v>
       </c>
       <c r="E3">
-        <v>280902</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>6335</v>
@@ -10862,10 +10862,10 @@
         <v>287237</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -10882,10 +10882,10 @@
         <v>129</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>228518</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>3183</v>
@@ -10894,10 +10894,10 @@
         <v>231701</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -10978,10 +10978,10 @@
         <v>127</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>130</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>212303</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>65063</v>
@@ -11010,10 +11010,10 @@
         <v>277366</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -11030,10 +11030,10 @@
         <v>131</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>215196</v>
       </c>
       <c r="E9">
-        <v>215196</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>58850</v>
@@ -11042,10 +11042,10 @@
         <v>274046</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>132</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>203178</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
       </c>
       <c r="F10">
         <v>32603</v>
@@ -11074,10 +11074,10 @@
         <v>235781</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -11094,10 +11094,10 @@
         <v>134</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>130192</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11106,10 +11106,10 @@
         <v>130192</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>135</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>179245</v>
       </c>
       <c r="E12">
-        <v>179245</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2856</v>
@@ -11138,10 +11138,10 @@
         <v>182101</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -11158,10 +11158,10 @@
         <v>136</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>224549</v>
       </c>
       <c r="E13">
-        <v>224549</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -11170,10 +11170,10 @@
         <v>224549</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -11190,10 +11190,10 @@
         <v>137</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>137471</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
       </c>
       <c r="F14">
         <v>150</v>
@@ -11202,10 +11202,10 @@
         <v>137621</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -11222,10 +11222,10 @@
         <v>138</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>242792</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -11234,10 +11234,10 @@
         <v>242792</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -11254,10 +11254,10 @@
         <v>139</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>110955</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -11266,10 +11266,10 @@
         <v>110955</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -11286,10 +11286,10 @@
         <v>140</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>130142</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -11298,10 +11298,10 @@
         <v>130150</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -11318,10 +11318,10 @@
         <v>141</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>131342</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
       </c>
       <c r="F18">
         <v>43910</v>
@@ -11330,10 +11330,10 @@
         <v>175252</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -11350,10 +11350,10 @@
         <v>142</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>130211</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
       </c>
       <c r="F19">
         <v>29113</v>
@@ -11362,10 +11362,10 @@
         <v>159324</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -11478,10 +11478,10 @@
         <v>131</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -11498,10 +11498,10 @@
         <v>143</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -11518,10 +11518,10 @@
         <v>144</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>202832</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
       </c>
       <c r="F25">
         <v>58967</v>
@@ -11530,10 +11530,10 @@
         <v>261799</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -11550,10 +11550,10 @@
         <v>132</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>224494</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
       </c>
       <c r="F26">
         <v>200</v>
@@ -11562,10 +11562,10 @@
         <v>224694</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -11582,10 +11582,10 @@
         <v>145</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>231368</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
       </c>
       <c r="F27">
         <v>106</v>
@@ -11594,10 +11594,10 @@
         <v>231474</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -11678,10 +11678,10 @@
         <v>143</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>220961</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
       </c>
       <c r="F30">
         <v>517</v>
@@ -11690,10 +11690,10 @@
         <v>221478</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -11806,10 +11806,10 @@
         <v>145</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>177024</v>
       </c>
       <c r="E34">
-        <v>177024</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>33444</v>
@@ -11818,10 +11818,10 @@
         <v>210468</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -11838,10 +11838,10 @@
         <v>131</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -11858,10 +11858,10 @@
         <v>145</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -11942,10 +11942,10 @@
         <v>130</v>
       </c>
       <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>234369</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
       </c>
       <c r="F39">
         <v>72451</v>
@@ -11954,10 +11954,10 @@
         <v>306820</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -11974,10 +11974,10 @@
         <v>131</v>
       </c>
       <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>227619</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
       </c>
       <c r="F40">
         <v>75696</v>
@@ -11986,10 +11986,10 @@
         <v>303315</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -12006,10 +12006,10 @@
         <v>145</v>
       </c>
       <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>225947</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
       </c>
       <c r="F41">
         <v>76450</v>
@@ -12018,10 +12018,10 @@
         <v>302397</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -12038,10 +12038,10 @@
         <v>146</v>
       </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>185530</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
       </c>
       <c r="F42">
         <v>58483</v>
@@ -12050,10 +12050,10 @@
         <v>244013</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -12070,10 +12070,10 @@
         <v>147</v>
       </c>
       <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>242166</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
       </c>
       <c r="F43">
         <v>75254</v>
@@ -12082,10 +12082,10 @@
         <v>317420</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -12102,10 +12102,10 @@
         <v>148</v>
       </c>
       <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>272899</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
       </c>
       <c r="F44">
         <v>90852</v>
@@ -12114,10 +12114,10 @@
         <v>363751</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -12134,10 +12134,10 @@
         <v>149</v>
       </c>
       <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>227841</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
       </c>
       <c r="F45">
         <v>18747</v>
@@ -12146,10 +12146,10 @@
         <v>246588</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -12230,10 +12230,10 @@
         <v>127</v>
       </c>
       <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>242570</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
       </c>
       <c r="F48">
         <v>36707</v>
@@ -12242,10 +12242,10 @@
         <v>279277</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -12390,10 +12390,10 @@
         <v>148</v>
       </c>
       <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>169945</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
       </c>
       <c r="F53">
         <v>1848</v>
@@ -12402,10 +12402,10 @@
         <v>171793</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -12454,10 +12454,10 @@
         <v>128</v>
       </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>141180</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
       </c>
       <c r="F55">
         <v>69156</v>
@@ -12466,10 +12466,10 @@
         <v>210336</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -12486,10 +12486,10 @@
         <v>147</v>
       </c>
       <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
         <v>106097</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
       </c>
       <c r="F56">
         <v>96973</v>
@@ -12498,10 +12498,10 @@
         <v>203070</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>127</v>
       </c>
       <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>237567</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
       </c>
       <c r="F61">
         <v>94681</v>
@@ -12658,10 +12658,10 @@
         <v>332248</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -12678,10 +12678,10 @@
         <v>132</v>
       </c>
       <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>275143</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
       </c>
       <c r="F62">
         <v>59003</v>
@@ -12690,10 +12690,10 @@
         <v>334146</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -12710,10 +12710,10 @@
         <v>149</v>
       </c>
       <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>242326</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
       </c>
       <c r="F63">
         <v>23214</v>
@@ -12722,10 +12722,10 @@
         <v>265540</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -12838,10 +12838,10 @@
         <v>128</v>
       </c>
       <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>194264</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
       </c>
       <c r="F67">
         <v>66764</v>
@@ -12850,10 +12850,10 @@
         <v>261028</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -12870,10 +12870,10 @@
         <v>146</v>
       </c>
       <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
         <v>180465</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
       </c>
       <c r="F68">
         <v>54</v>
@@ -12882,10 +12882,10 @@
         <v>180519</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -12902,10 +12902,10 @@
         <v>147</v>
       </c>
       <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
         <v>198798</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
       </c>
       <c r="F69">
         <v>27484</v>
@@ -12914,10 +12914,10 @@
         <v>226282</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -12934,10 +12934,10 @@
         <v>127</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>189012</v>
       </c>
       <c r="E70">
-        <v>189012</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>26814</v>
@@ -12946,10 +12946,10 @@
         <v>215826</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -12966,10 +12966,10 @@
         <v>130</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>175101</v>
       </c>
       <c r="E71">
-        <v>175101</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>21813</v>
@@ -12978,10 +12978,10 @@
         <v>196914</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -12998,10 +12998,10 @@
         <v>145</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>162894</v>
       </c>
       <c r="E72">
-        <v>162894</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>31967</v>
@@ -13010,10 +13010,10 @@
         <v>194861</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -13030,10 +13030,10 @@
         <v>147</v>
       </c>
       <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
         <v>143868</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
       </c>
       <c r="F73">
         <v>9760</v>
@@ -13042,10 +13042,10 @@
         <v>153628</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -13062,10 +13062,10 @@
         <v>150</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>189625</v>
       </c>
       <c r="E74">
-        <v>189625</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>25051</v>
@@ -13074,10 +13074,10 @@
         <v>214676</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -13094,10 +13094,10 @@
         <v>149</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>191293</v>
       </c>
       <c r="E75">
-        <v>191293</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -13106,10 +13106,10 @@
         <v>191293</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -13126,10 +13126,10 @@
         <v>151</v>
       </c>
       <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>130375</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
       </c>
       <c r="F76">
         <v>28348</v>
@@ -13138,10 +13138,10 @@
         <v>158723</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -13158,10 +13158,10 @@
         <v>152</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>243471</v>
       </c>
       <c r="E77">
-        <v>243471</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>60879</v>
@@ -13170,10 +13170,10 @@
         <v>304350</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -13222,10 +13222,10 @@
         <v>22</v>
       </c>
       <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
         <v>248203</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
       </c>
       <c r="F79">
         <v>49948</v>
@@ -13234,10 +13234,10 @@
         <v>298151</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -13254,10 +13254,10 @@
         <v>131</v>
       </c>
       <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>239911</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
       </c>
       <c r="F80">
         <v>7377</v>
@@ -13266,10 +13266,10 @@
         <v>247288</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -13286,10 +13286,10 @@
         <v>147</v>
       </c>
       <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
         <v>207306</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
       </c>
       <c r="F81">
         <v>6264</v>
@@ -13298,10 +13298,10 @@
         <v>213570</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -13350,10 +13350,10 @@
         <v>127</v>
       </c>
       <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
         <v>187734</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
       </c>
       <c r="F83">
         <v>130</v>
@@ -13362,10 +13362,10 @@
         <v>187864</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -13382,10 +13382,10 @@
         <v>132</v>
       </c>
       <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
         <v>222728</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
       </c>
       <c r="F84">
         <v>31451</v>
@@ -13394,10 +13394,10 @@
         <v>254179</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -13414,10 +13414,10 @@
         <v>145</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>275271</v>
       </c>
       <c r="E85">
-        <v>275271</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>70628</v>
@@ -13426,10 +13426,10 @@
         <v>345899</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>

--- a/data/extracted/Congressional Election Results by State (2008 - 111th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2008 - 111th).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31C425E-2D43-4144-BBF6-DFAB4720FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088C5D0E-0FAC-494E-A601-A73ACA7B052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="22400" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3920" yWindow="500" windowWidth="22400" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="3" r:id="rId1"/>
@@ -957,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2848,13 +2848,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4:L87"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3033,7 +3034,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -5004,7 +5005,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -6083,8 +6084,38 @@
       <c r="C92" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A2:J87" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:J87" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10th"/>
+        <filter val="11th"/>
+        <filter val="14th"/>
+        <filter val="16th"/>
+        <filter val="17th"/>
+        <filter val="18th"/>
+        <filter val="19th"/>
+        <filter val="1st"/>
+        <filter val="20th"/>
+        <filter val="21st"/>
+        <filter val="22nd"/>
+        <filter val="28th"/>
+        <filter val="2nd"/>
+        <filter val="30th"/>
+        <filter val="31st"/>
+        <filter val="32nd"/>
+        <filter val="37th"/>
+        <filter val="38th"/>
+        <filter val="3rd"/>
+        <filter val="4th"/>
+        <filter val="5th"/>
+        <filter val="6th"/>
+        <filter val="7th"/>
+        <filter val="8th"/>
+        <filter val="9th"/>
+        <filter val="AL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
